--- a/nlp/data/VCHAINS/5038061248_VCHAINS.xlsx
+++ b/nlp/data/VCHAINS/5038061248_VCHAINS.xlsx
@@ -14,16 +14,16 @@
     <x:definedName name="CriteriaLabels">'Value Chains'!$A$3:$A$4</x:definedName>
     <x:definedName name="CriteriaValues">'Value Chains'!$B$3:$B$4</x:definedName>
     <x:definedName name="ColumnHeader">'Value Chains'!$A$6:$N$6</x:definedName>
-    <x:definedName name="Data">'Value Chains'!$A$7:$N$11</x:definedName>
-    <x:definedName name="DataConfidenceScore">'Value Chains'!$G$7:$G$11</x:definedName>
-    <x:definedName name="DataRevenue">'Value Chains'!$I$7:$I$11</x:definedName>
+    <x:definedName name="Data">'Value Chains'!$A$7:$N$56</x:definedName>
+    <x:definedName name="DataConfidenceScore">'Value Chains'!$G$7:$G$56</x:definedName>
+    <x:definedName name="DataRevenue">'Value Chains'!$I$7:$I$56</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Value Chains</x:t>
   </x:si>
@@ -31,7 +31,7 @@
     <x:t>Company Name</x:t>
   </x:si>
   <x:si>
-    <x:t>Lite-On Technology Corp</x:t>
+    <x:t>Sprint Corp</x:t>
   </x:si>
   <x:si>
     <x:t>Company Id</x:t>
@@ -76,55 +76,262 @@
     <x:t>Implied Rating</x:t>
   </x:si>
   <x:si>
+    <x:t>T-Mobile US Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Public</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>United States of America</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wireless Telecommunications Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Huawei Technologies Co Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Private</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Supplier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>China</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Communications &amp; Networking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Samsung Electronics Co Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korea; Republic (S. Korea)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phones &amp; Handheld Devices</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lumos Networks Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Integrated Telecommunications Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shenandoah Telecommunications Co</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBB+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nTelos Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smith Micro Software Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT&amp;T Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BB-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casa Systems Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Altice USA Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brightstar Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Services &amp; Consulting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KM2 Solutions LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Business Support Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DISH Network Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Broadcasting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ciena Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SoftBank Group Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Infinera Optical Holding Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inseego Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keysight Technologies Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Electrical Components &amp; Equipment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dubber Corp Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Australia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JPMorgan Chase &amp; Co</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Banks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metaswitch Networks Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>United Kingdom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verizon Communications Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Advanced Disposal Services Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Environmental Services &amp; Equipment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CCC+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Airspan Networks Inc</x:t>
+  </x:si>
+  <x:si>
     <x:t>Apple Inc</x:t>
   </x:si>
   <x:si>
-    <x:t>Public</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Customer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>United States of America</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phones &amp; Handheld Devices</x:t>
-  </x:si>
-  <x:si>
     <x:t>A</x:t>
   </x:si>
   <x:si>
-    <x:t>Roku Inc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Supplier</x:t>
+    <x:t>Charter Communications Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comcast Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dinglong Culture Co Ltd</x:t>
   </x:si>
   <x:si>
     <x:t>Entertainment Production</x:t>
   </x:si>
   <x:si>
-    <x:t>Cypress Semiconductor Corp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Private</x:t>
+    <x:t>Google LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Online Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Movius Interactive Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AA-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NanoString Technologies Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medical Equipment, Supplies &amp; Distribution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BB+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Qualcomm Inc</x:t>
   </x:si>
   <x:si>
     <x:t>Semiconductors</x:t>
   </x:si>
   <x:si>
-    <x:t>BBB-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Optomec Inc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Electronic Equipment &amp; Parts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kioxia Holdings Corp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Japan</x:t>
+    <x:t>Shenandoah Personal Communications Co</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprint Communications Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Telefonaktiebolaget LM Ericsson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sweden</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Virgin Mobile Telecoms Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CCC-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voltari Operating Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cisco Systems Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HTC Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Taiwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG Electronics Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Household Electronics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MLS Co Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MLS Multimedia SA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Greece</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -578,24 +785,24 @@
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N11"/>
+  <x:dimension ref="A1:N56"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.700625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.300625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="37.820625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="7.830625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.710625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="23.040625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="26.790625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="38.980625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="20.190625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="16.840625000000003" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="21.920625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="10.410625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="14.180625000000001" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="14.880625" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="18.300625" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="9.570625" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="14.480625" style="0" customWidth="1"/>
   </x:cols>
@@ -605,7 +812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="2">
-        <x:v>44595.9340277778</x:v>
+        <x:v>44596.4979166667</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14" customFormat="1" ht="32.26" customHeight="1">
@@ -639,7 +846,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="5" t="n">
-        <x:v>4295891508</x:v>
+        <x:v>5038061248</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14">
@@ -688,7 +895,7 @@
     </x:row>
     <x:row r="7" spans="1:14">
       <x:c r="A7" s="5" t="n">
-        <x:v>4295905573</x:v>
+        <x:v>4295900188</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
         <x:v>17</x:v>
@@ -706,25 +913,25 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G7" s="7" t="n">
-        <x:v>1</x:v>
+        <x:v>0.999748735351716</x:v>
       </x:c>
       <x:c r="H7" s="8">
-        <x:v>43132</x:v>
+        <x:v>44518</x:v>
       </x:c>
       <x:c r="I7" s="9" t="n">
-        <x:v>1463</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J7" s="5" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K7" s="5" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L7" s="5" t="n">
-        <x:v>365817000000</x:v>
+        <x:v>80118000000</x:v>
       </x:c>
       <x:c r="M7" s="5" t="n">
-        <x:v>80</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N7" s="5" t="s">
         <x:v>22</x:v>
@@ -732,167 +939,2089 @@
     </x:row>
     <x:row r="8" spans="1:14">
       <x:c r="A8" s="5" t="n">
-        <x:v>4297900917</x:v>
+        <x:v>4296309931</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F8" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G8" s="7" t="n">
-        <x:v>0.55678434528</x:v>
+        <x:v>0.990994928691778</x:v>
       </x:c>
       <x:c r="H8" s="8">
-        <x:v>43062</x:v>
+        <x:v>43495</x:v>
       </x:c>
       <x:c r="I8" s="9" t="n">
-        <x:v>1533</x:v>
+        <x:v>1101</x:v>
       </x:c>
       <x:c r="J8" s="5" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K8" s="5" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L8" s="5" t="n">
-        <x:v>1778388000</x:v>
-      </x:c>
-      <x:c r="M8" s="5" t="n">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="N8" s="5" t="s">
-        <x:v>22</x:v>
-      </x:c>
+        <x:v>27362155731.6909</x:v>
+      </x:c>
+      <x:c r="M8" s="5" t="s"/>
+      <x:c r="N8" s="5" t="s"/>
     </x:row>
     <x:row r="9" spans="1:14">
       <x:c r="A9" s="5" t="n">
-        <x:v>4295903116</x:v>
+        <x:v>4295882451</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E9" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F9" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G9" s="7" t="n">
-        <x:v>0.30366456</x:v>
+        <x:v>0.986656358971378</x:v>
       </x:c>
       <x:c r="H9" s="8">
-        <x:v>41156</x:v>
+        <x:v>44004</x:v>
       </x:c>
       <x:c r="I9" s="9" t="n">
-        <x:v>3439</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="J9" s="5" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K9" s="5" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L9" s="5" t="n">
-        <x:v>2205314000</x:v>
-      </x:c>
-      <x:c r="M9" s="5" t="s"/>
+        <x:v>243974550248.924</x:v>
+      </x:c>
+      <x:c r="M9" s="5" t="n">
+        <x:v>76</x:v>
+      </x:c>
       <x:c r="N9" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14">
       <x:c r="A10" s="5" t="n">
-        <x:v>4297422171</x:v>
+        <x:v>4295900188</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D10" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G10" s="7" t="n">
+        <x:v>0.993243319077063</x:v>
+      </x:c>
+      <x:c r="H10" s="8">
+        <x:v>43965</x:v>
+      </x:c>
+      <x:c r="I10" s="9" t="n">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="J10" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K10" s="5" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="L10" s="5" t="n">
+        <x:v>80118000000</x:v>
+      </x:c>
+      <x:c r="M10" s="5" t="n">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D10" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F10" s="5" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G10" s="7" t="n">
-        <x:v>0.29733864</x:v>
-      </x:c>
-      <x:c r="H10" s="8">
-        <x:v>42452</x:v>
-      </x:c>
-      <x:c r="I10" s="9" t="n">
-        <x:v>2143</x:v>
-      </x:c>
-      <x:c r="J10" s="5" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K10" s="5" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L10" s="5" t="n">
-        <x:v>8007154</x:v>
-      </x:c>
-      <x:c r="M10" s="5" t="s"/>
-      <x:c r="N10" s="5" t="s"/>
+      <x:c r="N10" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:14">
       <x:c r="A11" s="5" t="n">
-        <x:v>5068663189</x:v>
+        <x:v>5035465102</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F11" s="5" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F11" s="5" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="G11" s="7" t="n">
-        <x:v>0.2897888</x:v>
+        <x:v>0.976341031007076</x:v>
       </x:c>
       <x:c r="H11" s="8">
-        <x:v>43710</x:v>
+        <x:v>43410</x:v>
       </x:c>
       <x:c r="I11" s="9" t="n">
-        <x:v>885</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="J11" s="5" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K11" s="5" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L11" s="5" t="s"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L11" s="5" t="n">
+        <x:v>206899000</x:v>
+      </x:c>
       <x:c r="M11" s="5" t="s"/>
       <x:c r="N11" s="5" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:14">
+      <x:c r="A12" s="5" t="n">
+        <x:v>4295914921</x:v>
+      </x:c>
+      <x:c r="B12" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D12" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F12" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G12" s="7" t="n">
+        <x:v>0.976429281795385</x:v>
+      </x:c>
+      <x:c r="H12" s="8">
+        <x:v>43524</x:v>
+      </x:c>
+      <x:c r="I12" s="9" t="n">
+        <x:v>1072</x:v>
+      </x:c>
+      <x:c r="J12" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K12" s="5" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L12" s="5" t="n">
+        <x:v>220775000</x:v>
+      </x:c>
+      <x:c r="M12" s="5" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N12" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:14">
+      <x:c r="A13" s="5" t="n">
+        <x:v>4295914921</x:v>
+      </x:c>
+      <x:c r="B13" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C13" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D13" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F13" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G13" s="7" t="n">
+        <x:v>0.968084062244971</x:v>
+      </x:c>
+      <x:c r="H13" s="8">
+        <x:v>43524</x:v>
+      </x:c>
+      <x:c r="I13" s="9" t="n">
+        <x:v>1072</x:v>
+      </x:c>
+      <x:c r="J13" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K13" s="5" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L13" s="5" t="n">
+        <x:v>220775000</x:v>
+      </x:c>
+      <x:c r="M13" s="5" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N13" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:14">
+      <x:c r="A14" s="5" t="n">
+        <x:v>4295908405</x:v>
+      </x:c>
+      <x:c r="B14" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C14" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D14" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E14" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F14" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G14" s="7" t="n">
+        <x:v>0.721119742937595</x:v>
+      </x:c>
+      <x:c r="H14" s="8">
+        <x:v>43223</x:v>
+      </x:c>
+      <x:c r="I14" s="9" t="n">
+        <x:v>1373</x:v>
+      </x:c>
+      <x:c r="J14" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K14" s="5" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L14" s="5" t="n">
+        <x:v>262727000</x:v>
+      </x:c>
+      <x:c r="M14" s="5" t="s"/>
+      <x:c r="N14" s="5" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:14">
+      <x:c r="A15" s="5" t="n">
+        <x:v>4295907938</x:v>
+      </x:c>
+      <x:c r="B15" s="5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C15" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D15" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E15" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F15" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G15" s="7" t="n">
+        <x:v>0.6377005678656</x:v>
+      </x:c>
+      <x:c r="H15" s="8">
+        <x:v>43549</x:v>
+      </x:c>
+      <x:c r="I15" s="9" t="n">
+        <x:v>1047</x:v>
+      </x:c>
+      <x:c r="J15" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K15" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L15" s="5" t="n">
+        <x:v>51300000</x:v>
+      </x:c>
+      <x:c r="M15" s="5" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="N15" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:14">
+      <x:c r="A16" s="5" t="n">
+        <x:v>4295904853</x:v>
+      </x:c>
+      <x:c r="B16" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C16" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D16" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E16" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F16" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G16" s="7" t="n">
+        <x:v>0.623168316797952</x:v>
+      </x:c>
+      <x:c r="H16" s="8">
+        <x:v>43504</x:v>
+      </x:c>
+      <x:c r="I16" s="9" t="n">
+        <x:v>1092</x:v>
+      </x:c>
+      <x:c r="J16" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K16" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L16" s="5" t="n">
+        <x:v>168864000000</x:v>
+      </x:c>
+      <x:c r="M16" s="5" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="N16" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:14">
+      <x:c r="A17" s="5" t="n">
+        <x:v>5000456794</x:v>
+      </x:c>
+      <x:c r="B17" s="5" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C17" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D17" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E17" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F17" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G17" s="7" t="n">
+        <x:v>0.578922024</x:v>
+      </x:c>
+      <x:c r="H17" s="8">
+        <x:v>43770</x:v>
+      </x:c>
+      <x:c r="I17" s="9" t="n">
+        <x:v>826</x:v>
+      </x:c>
+      <x:c r="J17" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K17" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L17" s="5" t="n">
+        <x:v>393246000</x:v>
+      </x:c>
+      <x:c r="M17" s="5" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="N17" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:14">
+      <x:c r="A18" s="5" t="n">
+        <x:v>5052148076</x:v>
+      </x:c>
+      <x:c r="B18" s="5" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C18" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D18" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E18" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F18" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G18" s="7" t="n">
+        <x:v>0.560708916096</x:v>
+      </x:c>
+      <x:c r="H18" s="8">
+        <x:v>43566</x:v>
+      </x:c>
+      <x:c r="I18" s="9" t="n">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="J18" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K18" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L18" s="5" t="n">
+        <x:v>9894642000</x:v>
+      </x:c>
+      <x:c r="M18" s="5" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="N18" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:14">
+      <x:c r="A19" s="5" t="n">
+        <x:v>4296334059</x:v>
+      </x:c>
+      <x:c r="B19" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C19" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D19" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E19" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F19" s="5" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G19" s="7" t="n">
+        <x:v>0.561060892512</x:v>
+      </x:c>
+      <x:c r="H19" s="8">
+        <x:v>43277</x:v>
+      </x:c>
+      <x:c r="I19" s="9" t="n">
+        <x:v>1319</x:v>
+      </x:c>
+      <x:c r="J19" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K19" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L19" s="5" t="n">
+        <x:v>4612863000</x:v>
+      </x:c>
+      <x:c r="M19" s="5" t="s"/>
+      <x:c r="N19" s="5" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:14">
+      <x:c r="A20" s="5" t="n">
+        <x:v>4297039761</x:v>
+      </x:c>
+      <x:c r="B20" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C20" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D20" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E20" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F20" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G20" s="7" t="n">
+        <x:v>0.559359563808</x:v>
+      </x:c>
+      <x:c r="H20" s="8">
+        <x:v>43735</x:v>
+      </x:c>
+      <x:c r="I20" s="9" t="n">
+        <x:v>861</x:v>
+      </x:c>
+      <x:c r="J20" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K20" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L20" s="5" t="n">
+        <x:v>6100000</x:v>
+      </x:c>
+      <x:c r="M20" s="5" t="s"/>
+      <x:c r="N20" s="5" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:14">
+      <x:c r="A21" s="5" t="n">
+        <x:v>4295906251</x:v>
+      </x:c>
+      <x:c r="B21" s="5" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C21" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D21" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E21" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F21" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G21" s="7" t="n">
+        <x:v>0.548622496512</x:v>
+      </x:c>
+      <x:c r="H21" s="8">
+        <x:v>43756</x:v>
+      </x:c>
+      <x:c r="I21" s="9" t="n">
+        <x:v>840</x:v>
+      </x:c>
+      <x:c r="J21" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K21" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L21" s="5" t="n">
+        <x:v>15493435000</x:v>
+      </x:c>
+      <x:c r="M21" s="5" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="N21" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:14">
+      <x:c r="A22" s="5" t="n">
+        <x:v>4295904853</x:v>
+      </x:c>
+      <x:c r="B22" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C22" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D22" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E22" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F22" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G22" s="7" t="n">
+        <x:v>0.539036166144</x:v>
+      </x:c>
+      <x:c r="H22" s="8">
+        <x:v>43790</x:v>
+      </x:c>
+      <x:c r="I22" s="9" t="n">
+        <x:v>806</x:v>
+      </x:c>
+      <x:c r="J22" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K22" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L22" s="5" t="n">
+        <x:v>168864000000</x:v>
+      </x:c>
+      <x:c r="M22" s="5" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="N22" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:14">
+      <x:c r="A23" s="5" t="n">
+        <x:v>4295905947</x:v>
+      </x:c>
+      <x:c r="B23" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C23" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D23" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E23" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F23" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G23" s="7" t="n">
+        <x:v>0.54093972</x:v>
+      </x:c>
+      <x:c r="H23" s="8">
+        <x:v>43895</x:v>
+      </x:c>
+      <x:c r="I23" s="9" t="n">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="J23" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K23" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L23" s="5" t="n">
+        <x:v>3620684000</x:v>
+      </x:c>
+      <x:c r="M23" s="5" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="N23" s="5" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:14">
+      <x:c r="A24" s="5" t="n">
+        <x:v>4295877094</x:v>
+      </x:c>
+      <x:c r="B24" s="5" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C24" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D24" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E24" s="5" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F24" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G24" s="7" t="n">
+        <x:v>0.53088346272</x:v>
+      </x:c>
+      <x:c r="H24" s="8">
+        <x:v>43220</x:v>
+      </x:c>
+      <x:c r="I24" s="9" t="n">
+        <x:v>1376</x:v>
+      </x:c>
+      <x:c r="J24" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K24" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L24" s="5" t="n">
+        <x:v>53099969092.1437</x:v>
+      </x:c>
+      <x:c r="M24" s="5" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N24" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:14">
+      <x:c r="A25" s="5" t="n">
+        <x:v>4295908121</x:v>
+      </x:c>
+      <x:c r="B25" s="5" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C25" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D25" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E25" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F25" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G25" s="7" t="n">
+        <x:v>0.318798</x:v>
+      </x:c>
+      <x:c r="H25" s="8">
+        <x:v>40295</x:v>
+      </x:c>
+      <x:c r="I25" s="9" t="n">
+        <x:v>4301</x:v>
+      </x:c>
+      <x:c r="J25" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K25" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L25" s="5" t="n">
+        <x:v>1052600000</x:v>
+      </x:c>
+      <x:c r="M25" s="5" t="s"/>
+      <x:c r="N25" s="5" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:14">
+      <x:c r="A26" s="5" t="n">
+        <x:v>5052505481</x:v>
+      </x:c>
+      <x:c r="B26" s="5" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C26" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D26" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E26" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F26" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G26" s="7" t="n">
+        <x:v>0.31939968</x:v>
+      </x:c>
+      <x:c r="H26" s="8">
+        <x:v>43175</x:v>
+      </x:c>
+      <x:c r="I26" s="9" t="n">
+        <x:v>1421</x:v>
+      </x:c>
+      <x:c r="J26" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K26" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L26" s="5" t="n">
+        <x:v>313832000</x:v>
+      </x:c>
+      <x:c r="M26" s="5" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N26" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:14">
+      <x:c r="A27" s="5" t="n">
+        <x:v>5041978269</x:v>
+      </x:c>
+      <x:c r="B27" s="5" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C27" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D27" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E27" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F27" s="5" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G27" s="7" t="n">
+        <x:v>0.31939952</x:v>
+      </x:c>
+      <x:c r="H27" s="8">
+        <x:v>43788</x:v>
+      </x:c>
+      <x:c r="I27" s="9" t="n">
+        <x:v>808</x:v>
+      </x:c>
+      <x:c r="J27" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K27" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L27" s="5" t="n">
+        <x:v>4941000000</x:v>
+      </x:c>
+      <x:c r="M27" s="5" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="N27" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:14">
+      <x:c r="A28" s="5" t="n">
+        <x:v>4295856717</x:v>
+      </x:c>
+      <x:c r="B28" s="5" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C28" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D28" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E28" s="5" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F28" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G28" s="7" t="n">
+        <x:v>0.31180584</x:v>
+      </x:c>
+      <x:c r="H28" s="8">
+        <x:v>43922</x:v>
+      </x:c>
+      <x:c r="I28" s="9" t="n">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="J28" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K28" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L28" s="5" t="n">
+        <x:v>17372452.6282116</x:v>
+      </x:c>
+      <x:c r="M28" s="5" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N28" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:14">
+      <x:c r="A29" s="5" t="n">
+        <x:v>5000021791</x:v>
+      </x:c>
+      <x:c r="B29" s="5" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C29" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D29" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E29" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F29" s="5" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G29" s="7" t="n">
+        <x:v>0.31101048</x:v>
+      </x:c>
+      <x:c r="H29" s="8">
+        <x:v>43392</x:v>
+      </x:c>
+      <x:c r="I29" s="9" t="n">
+        <x:v>1204</x:v>
+      </x:c>
+      <x:c r="J29" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K29" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L29" s="5" t="n">
+        <x:v>121649000000</x:v>
+      </x:c>
+      <x:c r="M29" s="5" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="N29" s="5" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:14">
+      <x:c r="A30" s="5" t="n">
+        <x:v>5000793693</x:v>
+      </x:c>
+      <x:c r="B30" s="5" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C30" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D30" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E30" s="5" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F30" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G30" s="7" t="n">
+        <x:v>0.3124832</x:v>
+      </x:c>
+      <x:c r="H30" s="8">
+        <x:v>43965</x:v>
+      </x:c>
+      <x:c r="I30" s="9" t="n">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="J30" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K30" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L30" s="5" t="s"/>
+      <x:c r="M30" s="5" t="s"/>
+      <x:c r="N30" s="5" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:14">
+      <x:c r="A31" s="5" t="n">
+        <x:v>4295911976</x:v>
+      </x:c>
+      <x:c r="B31" s="5" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C31" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D31" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E31" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F31" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G31" s="7" t="n">
+        <x:v>0.31032608</x:v>
+      </x:c>
+      <x:c r="H31" s="8">
+        <x:v>43418</x:v>
+      </x:c>
+      <x:c r="I31" s="9" t="n">
+        <x:v>1178</x:v>
+      </x:c>
+      <x:c r="J31" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K31" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L31" s="5" t="n">
+        <x:v>133613000000</x:v>
+      </x:c>
+      <x:c r="M31" s="5" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="N31" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:14">
+      <x:c r="A32" s="5" t="n">
+        <x:v>5037848536</x:v>
+      </x:c>
+      <x:c r="B32" s="5" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C32" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D32" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E32" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F32" s="5" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G32" s="7" t="n">
+        <x:v>0.3019568</x:v>
+      </x:c>
+      <x:c r="H32" s="8">
+        <x:v>42688</x:v>
+      </x:c>
+      <x:c r="I32" s="9" t="n">
+        <x:v>1908</x:v>
+      </x:c>
+      <x:c r="J32" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K32" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L32" s="5" t="n">
+        <x:v>1623000000</x:v>
+      </x:c>
+      <x:c r="M32" s="5" t="s"/>
+      <x:c r="N32" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:14">
+      <x:c r="A33" s="5" t="n">
+        <x:v>4295903050</x:v>
+      </x:c>
+      <x:c r="B33" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C33" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D33" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E33" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F33" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G33" s="7" t="n">
+        <x:v>0.30096256</x:v>
+      </x:c>
+      <x:c r="H33" s="8">
+        <x:v>43521</x:v>
+      </x:c>
+      <x:c r="I33" s="9" t="n">
+        <x:v>1075</x:v>
+      </x:c>
+      <x:c r="J33" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K33" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L33" s="5" t="n">
+        <x:v>70351000</x:v>
+      </x:c>
+      <x:c r="M33" s="5" t="s"/>
+      <x:c r="N33" s="5" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:14">
+      <x:c r="A34" s="5" t="n">
+        <x:v>4295905573</x:v>
+      </x:c>
+      <x:c r="B34" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C34" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D34" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E34" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F34" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G34" s="7" t="n">
+        <x:v>0.2989432</x:v>
+      </x:c>
+      <x:c r="H34" s="8">
+        <x:v>43797</x:v>
+      </x:c>
+      <x:c r="I34" s="9" t="n">
+        <x:v>799</x:v>
+      </x:c>
+      <x:c r="J34" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K34" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L34" s="5" t="n">
+        <x:v>365817000000</x:v>
+      </x:c>
+      <x:c r="M34" s="5" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="N34" s="5" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:14">
+      <x:c r="A35" s="5" t="n">
+        <x:v>4297255547</x:v>
+      </x:c>
+      <x:c r="B35" s="5" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C35" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D35" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E35" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F35" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G35" s="7" t="n">
+        <x:v>0.2986988</x:v>
+      </x:c>
+      <x:c r="H35" s="8">
+        <x:v>43450</x:v>
+      </x:c>
+      <x:c r="I35" s="9" t="n">
+        <x:v>1146</x:v>
+      </x:c>
+      <x:c r="J35" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K35" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L35" s="5" t="n">
+        <x:v>51682000000</x:v>
+      </x:c>
+      <x:c r="M35" s="5" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="N35" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:14">
+      <x:c r="A36" s="5" t="n">
+        <x:v>4295908573</x:v>
+      </x:c>
+      <x:c r="B36" s="5" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C36" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D36" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E36" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F36" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G36" s="7" t="n">
+        <x:v>0.3030288</x:v>
+      </x:c>
+      <x:c r="H36" s="8">
+        <x:v>43450</x:v>
+      </x:c>
+      <x:c r="I36" s="9" t="n">
+        <x:v>1146</x:v>
+      </x:c>
+      <x:c r="J36" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K36" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L36" s="5" t="n">
+        <x:v>116385000000</x:v>
+      </x:c>
+      <x:c r="M36" s="5" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="N36" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:14">
+      <x:c r="A37" s="5" t="n">
+        <x:v>5001188210</x:v>
+      </x:c>
+      <x:c r="B37" s="5" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C37" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D37" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E37" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F37" s="5" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G37" s="7" t="n">
+        <x:v>0.30317792</x:v>
+      </x:c>
+      <x:c r="H37" s="8">
+        <x:v>40862</x:v>
+      </x:c>
+      <x:c r="I37" s="9" t="n">
+        <x:v>3734</x:v>
+      </x:c>
+      <x:c r="J37" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K37" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L37" s="5" t="n">
+        <x:v>64383291.795149</x:v>
+      </x:c>
+      <x:c r="M37" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N37" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:14">
+      <x:c r="A38" s="5" t="n">
+        <x:v>4295899948</x:v>
+      </x:c>
+      <x:c r="B38" s="5" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C38" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D38" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E38" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F38" s="5" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G38" s="7" t="n">
+        <x:v>0.29972888</x:v>
+      </x:c>
+      <x:c r="H38" s="8">
+        <x:v>43521</x:v>
+      </x:c>
+      <x:c r="I38" s="9" t="n">
+        <x:v>1075</x:v>
+      </x:c>
+      <x:c r="J38" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K38" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L38" s="5" t="n">
+        <x:v>2151906718</x:v>
+      </x:c>
+      <x:c r="M38" s="5" t="s"/>
+      <x:c r="N38" s="5" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:14">
+      <x:c r="A39" s="5" t="n">
+        <x:v>4297792383</x:v>
+      </x:c>
+      <x:c r="B39" s="5" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C39" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D39" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E39" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F39" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G39" s="7" t="n">
+        <x:v>0.29708</x:v>
+      </x:c>
+      <x:c r="H39" s="8">
+        <x:v>42741</x:v>
+      </x:c>
+      <x:c r="I39" s="9" t="n">
+        <x:v>1855</x:v>
+      </x:c>
+      <x:c r="J39" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K39" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L39" s="5" t="n">
+        <x:v>41931459</x:v>
+      </x:c>
+      <x:c r="M39" s="5" t="s"/>
+      <x:c r="N39" s="5" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:14">
+      <x:c r="A40" s="5" t="n">
+        <x:v>4295908573</x:v>
+      </x:c>
+      <x:c r="B40" s="5" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C40" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D40" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E40" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F40" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G40" s="7" t="n">
+        <x:v>0.29199944</x:v>
+      </x:c>
+      <x:c r="H40" s="8">
+        <x:v>43083</x:v>
+      </x:c>
+      <x:c r="I40" s="9" t="n">
+        <x:v>1513</x:v>
+      </x:c>
+      <x:c r="J40" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K40" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L40" s="5" t="n">
+        <x:v>116385000000</x:v>
+      </x:c>
+      <x:c r="M40" s="5" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="N40" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:14">
+      <x:c r="A41" s="5" t="n">
+        <x:v>4295899948</x:v>
+      </x:c>
+      <x:c r="B41" s="5" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C41" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D41" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E41" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F41" s="5" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G41" s="7" t="n">
+        <x:v>0.294564</x:v>
+      </x:c>
+      <x:c r="H41" s="8">
+        <x:v>43882</x:v>
+      </x:c>
+      <x:c r="I41" s="9" t="n">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="J41" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K41" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L41" s="5" t="n">
+        <x:v>2151906718</x:v>
+      </x:c>
+      <x:c r="M41" s="5" t="s"/>
+      <x:c r="N41" s="5" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:14">
+      <x:c r="A42" s="5" t="n">
+        <x:v>4295881132</x:v>
+      </x:c>
+      <x:c r="B42" s="5" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C42" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D42" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E42" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F42" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G42" s="7" t="n">
+        <x:v>0.29236864</x:v>
+      </x:c>
+      <x:c r="H42" s="8">
+        <x:v>43615</x:v>
+      </x:c>
+      <x:c r="I42" s="9" t="n">
+        <x:v>981</x:v>
+      </x:c>
+      <x:c r="J42" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K42" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L42" s="5" t="n">
+        <x:v>4609903319.79127</x:v>
+      </x:c>
+      <x:c r="M42" s="5" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N42" s="5" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:14">
+      <x:c r="A43" s="5" t="n">
+        <x:v>4297144155</x:v>
+      </x:c>
+      <x:c r="B43" s="5" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C43" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D43" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E43" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F43" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G43" s="7" t="n">
+        <x:v>0.29397632</x:v>
+      </x:c>
+      <x:c r="H43" s="8">
+        <x:v>43412</x:v>
+      </x:c>
+      <x:c r="I43" s="9" t="n">
+        <x:v>1184</x:v>
+      </x:c>
+      <x:c r="J43" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K43" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L43" s="5" t="n">
+        <x:v>117316000</x:v>
+      </x:c>
+      <x:c r="M43" s="5" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="N43" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:14">
+      <x:c r="A44" s="5" t="n">
+        <x:v>4295907706</x:v>
+      </x:c>
+      <x:c r="B44" s="5" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C44" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D44" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E44" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F44" s="5" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G44" s="7" t="n">
+        <x:v>0.294718</x:v>
+      </x:c>
+      <x:c r="H44" s="8">
+        <x:v>43431</x:v>
+      </x:c>
+      <x:c r="I44" s="9" t="n">
+        <x:v>1165</x:v>
+      </x:c>
+      <x:c r="J44" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K44" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L44" s="5" t="n">
+        <x:v>33566000000</x:v>
+      </x:c>
+      <x:c r="M44" s="5" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="N44" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:14">
+      <x:c r="A45" s="5" t="n">
+        <x:v>5000035582</x:v>
+      </x:c>
+      <x:c r="B45" s="5" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C45" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D45" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E45" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F45" s="5" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G45" s="7" t="n">
+        <x:v>0.2903648</x:v>
+      </x:c>
+      <x:c r="H45" s="8">
+        <x:v>44502</x:v>
+      </x:c>
+      <x:c r="I45" s="9" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="J45" s="5" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K45" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L45" s="5" t="s"/>
+      <x:c r="M45" s="5" t="s"/>
+      <x:c r="N45" s="5" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:14">
+      <x:c r="A46" s="5" t="n">
+        <x:v>4295904966</x:v>
+      </x:c>
+      <x:c r="B46" s="5" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C46" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D46" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E46" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F46" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G46" s="7" t="n">
+        <x:v>0.28894352</x:v>
+      </x:c>
+      <x:c r="H46" s="8">
+        <x:v>43244</x:v>
+      </x:c>
+      <x:c r="I46" s="9" t="n">
+        <x:v>1352</x:v>
+      </x:c>
+      <x:c r="J46" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K46" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L46" s="5" t="n">
+        <x:v>16891000000</x:v>
+      </x:c>
+      <x:c r="M46" s="5" t="s"/>
+      <x:c r="N46" s="5" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:14">
+      <x:c r="A47" s="5" t="n">
+        <x:v>4295890008</x:v>
+      </x:c>
+      <x:c r="B47" s="5" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C47" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D47" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E47" s="5" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F47" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G47" s="7" t="n">
+        <x:v>0.28593032</x:v>
+      </x:c>
+      <x:c r="H47" s="8">
+        <x:v>43615</x:v>
+      </x:c>
+      <x:c r="I47" s="9" t="n">
+        <x:v>981</x:v>
+      </x:c>
+      <x:c r="J47" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K47" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L47" s="5" t="n">
+        <x:v>27105020002.1621</x:v>
+      </x:c>
+      <x:c r="M47" s="5" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="N47" s="5" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:14">
+      <x:c r="A48" s="5" t="n">
+        <x:v>4295890008</x:v>
+      </x:c>
+      <x:c r="B48" s="5" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C48" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D48" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E48" s="5" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F48" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G48" s="7" t="n">
+        <x:v>0.29447856</x:v>
+      </x:c>
+      <x:c r="H48" s="8">
+        <x:v>43356</x:v>
+      </x:c>
+      <x:c r="I48" s="9" t="n">
+        <x:v>1240</x:v>
+      </x:c>
+      <x:c r="J48" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K48" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L48" s="5" t="n">
+        <x:v>27105020002.1621</x:v>
+      </x:c>
+      <x:c r="M48" s="5" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="N48" s="5" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:14">
+      <x:c r="A49" s="5" t="n">
+        <x:v>4295911976</x:v>
+      </x:c>
+      <x:c r="B49" s="5" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C49" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D49" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E49" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F49" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G49" s="7" t="n">
+        <x:v>0.29082064</x:v>
+      </x:c>
+      <x:c r="H49" s="8">
+        <x:v>43326</x:v>
+      </x:c>
+      <x:c r="I49" s="9" t="n">
+        <x:v>1270</x:v>
+      </x:c>
+      <x:c r="J49" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K49" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L49" s="5" t="n">
+        <x:v>133613000000</x:v>
+      </x:c>
+      <x:c r="M49" s="5" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="N49" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:14">
+      <x:c r="A50" s="5" t="n">
+        <x:v>5000169436</x:v>
+      </x:c>
+      <x:c r="B50" s="5" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C50" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D50" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E50" s="5" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F50" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G50" s="7" t="n">
+        <x:v>0.28630664</x:v>
+      </x:c>
+      <x:c r="H50" s="8">
+        <x:v>43026</x:v>
+      </x:c>
+      <x:c r="I50" s="9" t="n">
+        <x:v>1570</x:v>
+      </x:c>
+      <x:c r="J50" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K50" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L50" s="5" t="n">
+        <x:v>725926988.238806</x:v>
+      </x:c>
+      <x:c r="M50" s="5" t="s"/>
+      <x:c r="N50" s="5" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:14">
+      <x:c r="A51" s="5" t="n">
+        <x:v>4297319088</x:v>
+      </x:c>
+      <x:c r="B51" s="5" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C51" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D51" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E51" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F51" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G51" s="7" t="n">
+        <x:v>0.2915224</x:v>
+      </x:c>
+      <x:c r="H51" s="8">
+        <x:v>40569</x:v>
+      </x:c>
+      <x:c r="I51" s="9" t="n">
+        <x:v>4027</x:v>
+      </x:c>
+      <x:c r="J51" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K51" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L51" s="5" t="n">
+        <x:v>83916000</x:v>
+      </x:c>
+      <x:c r="M51" s="5" t="s"/>
+      <x:c r="N51" s="5" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:14">
+      <x:c r="A52" s="5" t="n">
+        <x:v>4295905952</x:v>
+      </x:c>
+      <x:c r="B52" s="5" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C52" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D52" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E52" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F52" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G52" s="7" t="n">
+        <x:v>0.2817772</x:v>
+      </x:c>
+      <x:c r="H52" s="8">
+        <x:v>43074</x:v>
+      </x:c>
+      <x:c r="I52" s="9" t="n">
+        <x:v>1522</x:v>
+      </x:c>
+      <x:c r="J52" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K52" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L52" s="5" t="n">
+        <x:v>49818000000</x:v>
+      </x:c>
+      <x:c r="M52" s="5" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="N52" s="5" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:14">
+      <x:c r="A53" s="5" t="n">
+        <x:v>4295891746</x:v>
+      </x:c>
+      <x:c r="B53" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C53" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D53" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E53" s="5" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F53" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G53" s="7" t="n">
+        <x:v>0.276128</x:v>
+      </x:c>
+      <x:c r="H53" s="8">
+        <x:v>43521</x:v>
+      </x:c>
+      <x:c r="I53" s="9" t="n">
+        <x:v>1075</x:v>
+      </x:c>
+      <x:c r="J53" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K53" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L53" s="5" t="n">
+        <x:v>197274368.835544</x:v>
+      </x:c>
+      <x:c r="M53" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N53" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:14">
+      <x:c r="A54" s="5" t="n">
+        <x:v>4295881987</x:v>
+      </x:c>
+      <x:c r="B54" s="5" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C54" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D54" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E54" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F54" s="5" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="G54" s="7" t="n">
+        <x:v>0.27668768</x:v>
+      </x:c>
+      <x:c r="H54" s="8">
+        <x:v>43760</x:v>
+      </x:c>
+      <x:c r="I54" s="9" t="n">
+        <x:v>836</x:v>
+      </x:c>
+      <x:c r="J54" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K54" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L54" s="5" t="n">
+        <x:v>65341368982.9572</x:v>
+      </x:c>
+      <x:c r="M54" s="5" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N54" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:14">
+      <x:c r="A55" s="5" t="n">
+        <x:v>5000538060</x:v>
+      </x:c>
+      <x:c r="B55" s="5" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C55" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D55" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E55" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F55" s="5" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G55" s="7" t="n">
+        <x:v>0.28398008</x:v>
+      </x:c>
+      <x:c r="H55" s="8">
+        <x:v>43041</x:v>
+      </x:c>
+      <x:c r="I55" s="9" t="n">
+        <x:v>1555</x:v>
+      </x:c>
+      <x:c r="J55" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K55" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L55" s="5" t="n">
+        <x:v>2520984700.61255</x:v>
+      </x:c>
+      <x:c r="M55" s="5" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N55" s="5" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:14">
+      <x:c r="A56" s="5" t="n">
+        <x:v>4295870780</x:v>
+      </x:c>
+      <x:c r="B56" s="5" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C56" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D56" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E56" s="5" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F56" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G56" s="7" t="n">
+        <x:v>0.28398008</x:v>
+      </x:c>
+      <x:c r="H56" s="8">
+        <x:v>43137</x:v>
+      </x:c>
+      <x:c r="I56" s="9" t="n">
+        <x:v>1459</x:v>
+      </x:c>
+      <x:c r="J56" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K56" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L56" s="5" t="n">
+        <x:v>16477479.8049711</x:v>
+      </x:c>
+      <x:c r="M56" s="5" t="s"/>
+      <x:c r="N56" s="5" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
